--- a/src/main/resources/textExcel.xlsx
+++ b/src/main/resources/textExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JavaSpingBootStudyTool\TextFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SpringWeb_xiangmu\yupi\user_center\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E41D84-055F-4DA0-B05C-4E12FBD75B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F7A4F08-E0D9-4E3C-8135-7301D73D4BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>成员昵称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -530,6 +530,17 @@
         <v>250</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
